--- a/import-files/sdtm-1-3.xlsx
+++ b/import-files/sdtm-1-3.xlsx
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="670">
   <si>
     <t>mms:Model</t>
   </si>
@@ -1448,453 +1448,66 @@
     <t>sdtm-1-3:DE.Intervention.--TRT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Intervention.--MODIFY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--DECOD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--CAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--SCAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--PRESP</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--OCCUR</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--STAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--REASND</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--INDC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--CLAS</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--CLASCD</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Intervention.--DOSE</t>
   </si>
   <si>
     <t>sdtm-1-3:DE.Intervention.--DOSTXT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Intervention.--DOSU</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--DOSFRM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--DOSFRQ</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Intervention.--DOSTOT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Intervention.--DOSRGM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--ROUTE</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--LOT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--LOC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--TRTV</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Intervention.--VAMT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Intervention.--VAMTU</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Intervention.--ADJ</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--TERM</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--MODIFY</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--LLT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--LLTCD</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--DECOD</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--PTCD</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--HLT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--HLTCD</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--HLGT</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--HLGTCD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--CAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SCAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--PRESP</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--OCCUR</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--STAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--REASND</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--BODSYS</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--BDSYCD</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--SOC</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Event.--SOCCD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--LOC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SEV</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SER</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--ACN</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--ACNOTH</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--REL</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--RELNST</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--PATT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--OUT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SCAN</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SCONG</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SDISAB</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SDTH</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SHOSP</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SLIFE</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SOD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--SMIE</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--CONTRT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Event.--TOX</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Event.--TOXGR</t>
   </si>
   <si>
     <t>sdtm-1-3:DE.Finding.--TESTCD</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--TEST</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--MODIFY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--CAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--SCAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--POS</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--BODSYS</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--ORRES</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--ORRESU</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--ORNRLO</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--ORNRHI</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--STRESC</t>
   </si>
   <si>
     <t>sdtm-1-3:DE.Finding.--STRESN</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--STRESU</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--STNRLO</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--STNRHI</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--STNRC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--NRIND</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--RESCAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--STAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--REASND</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--XFN</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--NAM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--LOINC</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--SPEC</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--ANTREG</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--SPCCND</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--SPCUFL</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--LOC</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--LAT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--DIR</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--PORTOT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--METHOD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--LEAD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--CSTATE</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--BLFL</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--FAST</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--DRVFL</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--EVAL</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--EVALID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--ACPTFL</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--TOX</t>
-  </si>
-  <si>
     <t>sdtm-1-3:DE.Finding.--TOXGR</t>
   </si>
   <si>
-    <t>sdtm-1-3:DE.Finding.--SEV</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--DTHREL</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--LLOQ</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--EXCLFL</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Finding.--REASEX</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.FindingAbout.--OBJ</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.STUDYID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.DOMAIN</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.USUBJID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.POOLID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--SEQ</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--GRPID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--REFID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--SPID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--LNKID</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Identifier.--LNKGRP</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.VISITNUM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.VISIT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.VISITDY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.TAETORD</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.EPOCH</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--DTC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--STDTC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ENDTC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--DY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--STDY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ENDY</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--DUR</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--TPT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--TPTNUM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ELTM</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--TPTREF</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--RFTDTC</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--STRF</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ENRF</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--EVLINT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--STRTPT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--STTPT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ENRTPT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--ENTPT</t>
-  </si>
-  <si>
-    <t>sdtm-1-3:DE.Timing.--DETECT</t>
-  </si>
-  <si>
     <t>cdiscs:supportedBySDTMIG</t>
   </si>
   <si>
@@ -2022,6 +1635,456 @@
   </si>
   <si>
     <t>sdtm-1-3:Classifier.RuleVariable</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--TRT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--MODIFY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DECOD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--CAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--SCAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--PRESP</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--OCCUR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--STAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--REASND</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--INDC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--CLAS</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--CLASCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSTXT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSU</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSFRM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSFRQ</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSTOT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--DOSRGM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--ROUTE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--LOT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--LOC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--TRTV</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--VAMT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--VAMTU</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Intervention.--ADJ</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--TERM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--MODIFY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--LLT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--LLTCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--DECOD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--PTCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--HLT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--HLTCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--HLGT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--HLGTCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--CAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SCAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--PRESP</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--OCCUR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--STAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--REASND</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--BODSYS</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--BDSYCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SOC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SOCCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--LOC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SEV</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SER</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--ACN</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--ACNOTH</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--REL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--RELNST</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--PATT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--OUT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SCAN</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SCONG</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SDISAB</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SDTH</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SHOSP</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SLIFE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SOD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--SMIE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--CONTRT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--TOX</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Event.--TOXGR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--TESTCD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--TEST</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--MODIFY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--CAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SCAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--POS</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--BODSYS</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ORRES</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ORRESU</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ORNRLO</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ORNRHI</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STRESC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STRESN</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STRESU</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STNRLO</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STNRHI</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STNRC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--NRIND</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--RESCAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--STAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--REASND</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--XFN</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--NAM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LOINC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SPEC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ANTREG</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SPCCND</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SPCUFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LOC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LAT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--DIR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--PORTOT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--METHOD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LEAD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--CSTATE</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--BLFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--FAST</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--DRVFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--EVAL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--EVALID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--ACPTFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--TOX</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--TOXGR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--SEV</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--DTHREL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--LLOQ</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--EXCLFL</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Finding.--REASEX</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.FindingAbout.--OBJ</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.STUDYID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.DOMAIN</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.USUBJID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.POOLID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--SEQ</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--GRPID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--REFID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--SPID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--LNKID</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Identifier.--LNKGRP</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.VISITNUM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.VISIT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.VISITDY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.TAETORD</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.EPOCH</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--DTC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--STDTC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ENDTC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--DY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--STDY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ENDY</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--DUR</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--TPT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--TPTNUM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ELTM</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--TPTREF</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--RFTDTC</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--STRF</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ENRF</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--EVLINT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--STRTPT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--STTPT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ENRTPT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--ENTPT</t>
+  </si>
+  <si>
+    <t>sdtm-1-3:DataElement.Timing.--DETECT</t>
   </si>
 </sst>
 </file>
@@ -2847,46 +2910,46 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>617</v>
+        <v>488</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>619</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>645</v>
+        <v>516</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>620</v>
+        <v>491</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>621</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>646</v>
+        <v>517</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>623</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>647</v>
+        <v>518</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>624</v>
+        <v>495</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>625</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -2916,112 +2979,112 @@
   <sheetData>
     <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>626</v>
+        <v>497</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>618</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>619</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>627</v>
+        <v>498</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>628</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>629</v>
+        <v>500</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>630</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>631</v>
+        <v>502</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>632</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>633</v>
+        <v>504</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>634</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>648</v>
+        <v>519</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>635</v>
+        <v>506</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>636</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>638</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>639</v>
+        <v>510</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>640</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>641</v>
+        <v>512</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>642</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>643</v>
+        <v>514</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>644</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3234,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
@@ -3212,21 +3275,21 @@
         <v>439</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>608</v>
+        <v>479</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>440</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>606</v>
+        <v>477</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>607</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>450</v>
@@ -3247,7 +3310,7 @@
         <v>25</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>441</v>
@@ -3261,7 +3324,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>450</v>
@@ -3282,7 +3345,7 @@
         <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>456</v>
@@ -3299,7 +3362,7 @@
     </row>
     <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>450</v>
@@ -3320,7 +3383,7 @@
         <v>31</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>456</v>
@@ -3337,7 +3400,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>450</v>
@@ -3358,7 +3421,7 @@
         <v>34</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>441</v>
@@ -3372,7 +3435,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>460</v>
+        <v>524</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>450</v>
@@ -3393,7 +3456,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>441</v>
@@ -3407,7 +3470,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>450</v>
@@ -3428,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>456</v>
@@ -3445,7 +3508,7 @@
     </row>
     <row r="8" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>462</v>
+        <v>526</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>450</v>
@@ -3466,7 +3529,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>441</v>
@@ -3480,7 +3543,7 @@
     </row>
     <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>450</v>
@@ -3501,7 +3564,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>441</v>
@@ -3515,7 +3578,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>464</v>
+        <v>528</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>450</v>
@@ -3536,7 +3599,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>441</v>
@@ -3550,7 +3613,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>465</v>
+        <v>529</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>450</v>
@@ -3571,7 +3634,7 @@
         <v>52</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>441</v>
@@ -3585,7 +3648,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>450</v>
@@ -3606,7 +3669,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>456</v>
@@ -3623,7 +3686,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>450</v>
@@ -3644,7 +3707,7 @@
         <v>58</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>456</v>
@@ -3661,7 +3724,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>468</v>
+        <v>532</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>450</v>
@@ -3682,7 +3745,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>442</v>
@@ -3696,7 +3759,7 @@
     </row>
     <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>469</v>
+        <v>533</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>450</v>
@@ -3717,7 +3780,7 @@
         <v>65</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>441</v>
@@ -3731,7 +3794,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>450</v>
@@ -3752,10 +3815,10 @@
         <v>68</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>441</v>
@@ -3769,11 +3832,11 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="D17" s="10"/>
       <c r="I17" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>437</v>
@@ -3784,11 +3847,11 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>470</v>
+        <v>534</v>
       </c>
       <c r="D18" s="10"/>
       <c r="I18" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>437</v>
@@ -3799,7 +3862,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>450</v>
@@ -3820,10 +3883,10 @@
         <v>71</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>441</v>
@@ -3837,11 +3900,11 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="D20" s="10"/>
       <c r="I20" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>437</v>
@@ -3852,11 +3915,11 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>471</v>
+        <v>535</v>
       </c>
       <c r="D21" s="10"/>
       <c r="I21" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>437</v>
@@ -3867,7 +3930,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>450</v>
@@ -3888,10 +3951,10 @@
         <v>74</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>441</v>
@@ -3905,11 +3968,11 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="D23" s="10"/>
       <c r="I23" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>437</v>
@@ -3920,11 +3983,11 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="D24" s="10"/>
       <c r="I24" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K24" s="10" t="s">
         <v>437</v>
@@ -3935,7 +3998,7 @@
     </row>
     <row r="25" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>450</v>
@@ -3956,7 +4019,7 @@
         <v>77</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>442</v>
@@ -3970,7 +4033,7 @@
     </row>
     <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>450</v>
@@ -3991,10 +4054,10 @@
         <v>80</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>441</v>
@@ -4008,11 +4071,11 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D27" s="10"/>
       <c r="I27" s="9" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>437</v>
@@ -4023,11 +4086,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D28" s="10"/>
       <c r="I28" s="9" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>437</v>
@@ -4038,7 +4101,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>450</v>
@@ -4059,7 +4122,7 @@
         <v>83</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>456</v>
@@ -4076,7 +4139,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>450</v>
@@ -4097,7 +4160,7 @@
         <v>86</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>441</v>
@@ -4111,7 +4174,7 @@
     </row>
     <row r="31" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>450</v>
@@ -4132,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>441</v>
@@ -4146,7 +4209,7 @@
     </row>
     <row r="32" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>450</v>
@@ -4167,7 +4230,7 @@
         <v>92</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>441</v>
@@ -4181,7 +4244,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>450</v>
@@ -4202,7 +4265,7 @@
         <v>95</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>442</v>
@@ -4216,7 +4279,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>450</v>
@@ -4237,10 +4300,10 @@
         <v>98</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>441</v>
@@ -4254,7 +4317,7 @@
     </row>
     <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>450</v>
@@ -4275,7 +4338,7 @@
         <v>101</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>441</v>
@@ -4289,7 +4352,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>451</v>
@@ -4310,7 +4373,7 @@
         <v>104</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>441</v>
@@ -4324,7 +4387,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>451</v>
@@ -4345,10 +4408,10 @@
         <v>106</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>441</v>
@@ -4362,7 +4425,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>451</v>
@@ -4383,10 +4446,10 @@
         <v>109</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>441</v>
@@ -4400,7 +4463,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>451</v>
@@ -4421,10 +4484,10 @@
         <v>113</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>442</v>
@@ -4438,7 +4501,7 @@
     </row>
     <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>486</v>
+        <v>550</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>451</v>
@@ -4459,10 +4522,10 @@
         <v>115</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>441</v>
@@ -4476,7 +4539,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>487</v>
+        <v>551</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>451</v>
@@ -4497,10 +4560,10 @@
         <v>118</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>442</v>
@@ -4514,7 +4577,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>488</v>
+        <v>552</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>451</v>
@@ -4535,10 +4598,10 @@
         <v>121</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J42" s="9" t="s">
         <v>441</v>
@@ -4552,7 +4615,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>489</v>
+        <v>553</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>451</v>
@@ -4573,10 +4636,10 @@
         <v>124</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>442</v>
@@ -4590,7 +4653,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>490</v>
+        <v>554</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>451</v>
@@ -4611,10 +4674,10 @@
         <v>127</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>441</v>
@@ -4628,7 +4691,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>451</v>
@@ -4649,10 +4712,10 @@
         <v>130</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>442</v>
@@ -4666,7 +4729,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>492</v>
+        <v>556</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>451</v>
@@ -4687,7 +4750,7 @@
         <v>34</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>441</v>
@@ -4701,7 +4764,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>493</v>
+        <v>557</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>451</v>
@@ -4722,7 +4785,7 @@
         <v>37</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>441</v>
@@ -4736,7 +4799,7 @@
     </row>
     <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>494</v>
+        <v>558</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>451</v>
@@ -4757,10 +4820,10 @@
         <v>131</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>441</v>
@@ -4774,7 +4837,7 @@
     </row>
     <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>495</v>
+        <v>559</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>451</v>
@@ -4795,7 +4858,7 @@
         <v>132</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>441</v>
@@ -4809,7 +4872,7 @@
     </row>
     <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>451</v>
@@ -4830,7 +4893,7 @@
         <v>133</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>441</v>
@@ -4844,7 +4907,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>451</v>
@@ -4865,7 +4928,7 @@
         <v>134</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>441</v>
@@ -4879,7 +4942,7 @@
     </row>
     <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>498</v>
+        <v>562</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>451</v>
@@ -4900,7 +4963,7 @@
         <v>137</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>441</v>
@@ -4914,7 +4977,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
-        <v>499</v>
+        <v>563</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>451</v>
@@ -4935,10 +4998,10 @@
         <v>140</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>442</v>
@@ -4952,7 +5015,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>451</v>
@@ -4973,10 +5036,10 @@
         <v>143</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>441</v>
@@ -4990,7 +5053,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>451</v>
@@ -5011,10 +5074,10 @@
         <v>146</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>442</v>
@@ -5028,7 +5091,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>451</v>
@@ -5049,7 +5112,7 @@
         <v>148</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>441</v>
@@ -5063,7 +5126,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>451</v>
@@ -5084,7 +5147,7 @@
         <v>151</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>441</v>
@@ -5098,7 +5161,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>451</v>
@@ -5119,7 +5182,7 @@
         <v>154</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>441</v>
@@ -5133,7 +5196,7 @@
     </row>
     <row r="59" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>451</v>
@@ -5154,7 +5217,7 @@
         <v>157</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>441</v>
@@ -5168,7 +5231,7 @@
     </row>
     <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>451</v>
@@ -5189,7 +5252,7 @@
         <v>160</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>441</v>
@@ -5203,7 +5266,7 @@
     </row>
     <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>451</v>
@@ -5224,7 +5287,7 @@
         <v>163</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>441</v>
@@ -5238,7 +5301,7 @@
     </row>
     <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>508</v>
+        <v>572</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>451</v>
@@ -5259,7 +5322,7 @@
         <v>166</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>441</v>
@@ -5273,7 +5336,7 @@
     </row>
     <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>509</v>
+        <v>573</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>451</v>
@@ -5294,7 +5357,7 @@
         <v>169</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>441</v>
@@ -5308,7 +5371,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>451</v>
@@ -5329,7 +5392,7 @@
         <v>172</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>441</v>
@@ -5343,7 +5406,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>451</v>
@@ -5364,7 +5427,7 @@
         <v>175</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>441</v>
@@ -5378,7 +5441,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>451</v>
@@ -5399,7 +5462,7 @@
         <v>178</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J66" s="9" t="s">
         <v>441</v>
@@ -5413,7 +5476,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>451</v>
@@ -5434,7 +5497,7 @@
         <v>181</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>441</v>
@@ -5448,7 +5511,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>451</v>
@@ -5469,7 +5532,7 @@
         <v>184</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>441</v>
@@ -5483,7 +5546,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>451</v>
@@ -5504,7 +5567,7 @@
         <v>187</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>441</v>
@@ -5518,7 +5581,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>451</v>
@@ -5539,7 +5602,7 @@
         <v>190</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>441</v>
@@ -5553,7 +5616,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>451</v>
@@ -5574,7 +5637,7 @@
         <v>193</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>441</v>
@@ -5588,7 +5651,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>451</v>
@@ -5609,7 +5672,7 @@
         <v>196</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>441</v>
@@ -5623,7 +5686,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>451</v>
@@ -5644,7 +5707,7 @@
         <v>199</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>441</v>
@@ -5658,7 +5721,7 @@
     </row>
     <row r="74" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>451</v>
@@ -5679,10 +5742,10 @@
         <v>202</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>441</v>
@@ -5696,7 +5759,7 @@
     </row>
     <row r="75" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>451</v>
@@ -5717,7 +5780,7 @@
         <v>205</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>441</v>
@@ -5731,7 +5794,7 @@
     </row>
     <row r="76" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>452</v>
@@ -5752,7 +5815,7 @@
         <v>208</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>609</v>
+        <v>480</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>441</v>
@@ -5766,7 +5829,7 @@
     </row>
     <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>452</v>
@@ -5787,10 +5850,10 @@
         <v>211</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="J77" s="9" t="s">
         <v>441</v>
@@ -5804,7 +5867,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>452</v>
@@ -5825,10 +5888,10 @@
         <v>213</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J78" s="9" t="s">
         <v>441</v>
@@ -5842,7 +5905,7 @@
     </row>
     <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>452</v>
@@ -5863,7 +5926,7 @@
         <v>214</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>441</v>
@@ -5877,7 +5940,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>526</v>
+        <v>590</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>452</v>
@@ -5898,7 +5961,7 @@
         <v>215</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>441</v>
@@ -5912,7 +5975,7 @@
     </row>
     <row r="81" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>527</v>
+        <v>591</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>452</v>
@@ -5933,7 +5996,7 @@
         <v>218</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>441</v>
@@ -5947,7 +6010,7 @@
     </row>
     <row r="82" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>452</v>
@@ -5968,7 +6031,7 @@
         <v>219</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J82" s="9" t="s">
         <v>441</v>
@@ -5982,7 +6045,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>452</v>
@@ -6003,7 +6066,7 @@
         <v>222</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>441</v>
@@ -6017,7 +6080,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>452</v>
@@ -6038,10 +6101,10 @@
         <v>225</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J84" s="9" t="s">
         <v>441</v>
@@ -6055,7 +6118,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>452</v>
@@ -6076,10 +6139,10 @@
         <v>228</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>441</v>
@@ -6093,7 +6156,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>452</v>
@@ -6114,10 +6177,10 @@
         <v>231</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>441</v>
@@ -6131,7 +6194,7 @@
     </row>
     <row r="87" spans="1:12" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>452</v>
@@ -6152,7 +6215,7 @@
         <v>234</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>441</v>
@@ -6166,7 +6229,7 @@
     </row>
     <row r="88" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>534</v>
+        <v>598</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>452</v>
@@ -6187,7 +6250,7 @@
         <v>237</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="J88" s="9" t="s">
         <v>442</v>
@@ -6201,7 +6264,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>452</v>
@@ -6222,10 +6285,10 @@
         <v>240</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>441</v>
@@ -6239,11 +6302,11 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>535</v>
+        <v>599</v>
       </c>
       <c r="D90" s="10"/>
       <c r="I90" s="9" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="K90" s="10" t="s">
         <v>437</v>
@@ -6254,7 +6317,7 @@
     </row>
     <row r="91" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>452</v>
@@ -6275,10 +6338,10 @@
         <v>243</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>442</v>
@@ -6292,11 +6355,11 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="D92" s="10"/>
       <c r="I92" s="9" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="K92" s="10" t="s">
         <v>437</v>
@@ -6307,7 +6370,7 @@
     </row>
     <row r="93" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>452</v>
@@ -6328,10 +6391,10 @@
         <v>246</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I93" s="9" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>442</v>
@@ -6345,11 +6408,11 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>537</v>
+        <v>601</v>
       </c>
       <c r="D94" s="10"/>
       <c r="I94" s="9" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="K94" s="10" t="s">
         <v>437</v>
@@ -6360,7 +6423,7 @@
     </row>
     <row r="95" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>452</v>
@@ -6381,10 +6444,10 @@
         <v>249</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>441</v>
@@ -6398,11 +6461,11 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>538</v>
+        <v>602</v>
       </c>
       <c r="D96" s="10"/>
       <c r="I96" s="9" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>437</v>
@@ -6413,7 +6476,7 @@
     </row>
     <row r="97" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>452</v>
@@ -6434,10 +6497,10 @@
         <v>252</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J97" s="9" t="s">
         <v>441</v>
@@ -6451,7 +6514,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>452</v>
@@ -6472,10 +6535,10 @@
         <v>255</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I98" s="9" t="s">
-        <v>529</v>
+        <v>470</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>441</v>
@@ -6489,7 +6552,7 @@
     </row>
     <row r="99" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>452</v>
@@ -6510,7 +6573,7 @@
         <v>256</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>441</v>
@@ -6524,7 +6587,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>452</v>
@@ -6545,7 +6608,7 @@
         <v>257</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>441</v>
@@ -6559,7 +6622,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>452</v>
@@ -6580,7 +6643,7 @@
         <v>260</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>441</v>
@@ -6594,7 +6657,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>452</v>
@@ -6615,7 +6678,7 @@
         <v>263</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J102" s="9" t="s">
         <v>441</v>
@@ -6629,7 +6692,7 @@
     </row>
     <row r="103" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>452</v>
@@ -6650,10 +6713,10 @@
         <v>266</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>610</v>
+        <v>481</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>441</v>
@@ -6667,7 +6730,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>452</v>
@@ -6688,7 +6751,7 @@
         <v>269</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J104" s="9" t="s">
         <v>441</v>
@@ -6702,7 +6765,7 @@
     </row>
     <row r="105" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>452</v>
@@ -6723,10 +6786,10 @@
         <v>443</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>546</v>
+        <v>473</v>
       </c>
       <c r="J105" s="9" t="s">
         <v>441</v>
@@ -6740,7 +6803,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>452</v>
@@ -6761,7 +6824,7 @@
         <v>274</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>441</v>
@@ -6775,7 +6838,7 @@
     </row>
     <row r="107" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>452</v>
@@ -6796,7 +6859,7 @@
         <v>277</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>441</v>
@@ -6810,7 +6873,7 @@
     </row>
     <row r="108" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>452</v>
@@ -6831,7 +6894,7 @@
         <v>279</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>441</v>
@@ -6845,7 +6908,7 @@
     </row>
     <row r="109" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>452</v>
@@ -6866,10 +6929,10 @@
         <v>444</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>441</v>
@@ -6883,7 +6946,7 @@
     </row>
     <row r="110" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>452</v>
@@ -6904,10 +6967,10 @@
         <v>445</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>441</v>
@@ -6921,7 +6984,7 @@
     </row>
     <row r="111" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>452</v>
@@ -6942,10 +7005,10 @@
         <v>286</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
       <c r="J111" s="9" t="s">
         <v>441</v>
@@ -6959,7 +7022,7 @@
     </row>
     <row r="112" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>452</v>
@@ -6980,7 +7043,7 @@
         <v>289</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J112" s="9" t="s">
         <v>441</v>
@@ -6994,7 +7057,7 @@
     </row>
     <row r="113" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>452</v>
@@ -7015,7 +7078,7 @@
         <v>292</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>441</v>
@@ -7029,7 +7092,7 @@
     </row>
     <row r="114" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>452</v>
@@ -7050,7 +7113,7 @@
         <v>446</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J114" s="9" t="s">
         <v>441</v>
@@ -7064,7 +7127,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>452</v>
@@ -7085,7 +7148,7 @@
         <v>297</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>441</v>
@@ -7099,7 +7162,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>558</v>
+        <v>622</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>452</v>
@@ -7120,7 +7183,7 @@
         <v>300</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J116" s="9" t="s">
         <v>441</v>
@@ -7134,7 +7197,7 @@
     </row>
     <row r="117" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>452</v>
@@ -7155,7 +7218,7 @@
         <v>303</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J117" s="9" t="s">
         <v>441</v>
@@ -7169,7 +7232,7 @@
     </row>
     <row r="118" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>452</v>
@@ -7190,7 +7253,7 @@
         <v>306</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J118" s="9" t="s">
         <v>441</v>
@@ -7204,7 +7267,7 @@
     </row>
     <row r="119" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>452</v>
@@ -7225,10 +7288,10 @@
         <v>447</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>560</v>
+        <v>475</v>
       </c>
       <c r="J119" s="9" t="s">
         <v>441</v>
@@ -7242,7 +7305,7 @@
     </row>
     <row r="120" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>452</v>
@@ -7263,7 +7326,7 @@
         <v>311</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J120" s="9" t="s">
         <v>441</v>
@@ -7277,7 +7340,7 @@
     </row>
     <row r="121" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>452</v>
@@ -7298,10 +7361,10 @@
         <v>202</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>564</v>
+        <v>476</v>
       </c>
       <c r="J121" s="9" t="s">
         <v>441</v>
@@ -7315,7 +7378,7 @@
     </row>
     <row r="122" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>452</v>
@@ -7336,10 +7399,10 @@
         <v>312</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J122" s="9" t="s">
         <v>441</v>
@@ -7353,7 +7416,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>452</v>
@@ -7374,7 +7437,7 @@
         <v>314</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J123" s="9" t="s">
         <v>441</v>
@@ -7388,7 +7451,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>452</v>
@@ -7409,7 +7472,7 @@
         <v>317</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J124" s="9" t="s">
         <v>441</v>
@@ -7423,7 +7486,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>452</v>
@@ -7444,10 +7507,10 @@
         <v>320</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="J125" s="9" t="s">
         <v>442</v>
@@ -7461,11 +7524,11 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="D126" s="10"/>
       <c r="I126" s="11" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
       <c r="K126" s="10" t="s">
         <v>437</v>
@@ -7476,7 +7539,7 @@
     </row>
     <row r="127" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>452</v>
@@ -7497,7 +7560,7 @@
         <v>323</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J127" s="9" t="s">
         <v>441</v>
@@ -7511,7 +7574,7 @@
     </row>
     <row r="128" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>452</v>
@@ -7532,7 +7595,7 @@
         <v>448</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J128" s="9" t="s">
         <v>441</v>
@@ -7546,7 +7609,7 @@
     </row>
     <row r="129" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>11</v>
@@ -7567,7 +7630,7 @@
         <v>328</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="J129" s="9" t="s">
         <v>441</v>
@@ -7581,7 +7644,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>454</v>
@@ -7602,7 +7665,7 @@
         <v>331</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J130" s="9" t="s">
         <v>441</v>
@@ -7616,7 +7679,7 @@
     </row>
     <row r="131" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>454</v>
@@ -7637,7 +7700,7 @@
         <v>334</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J131" s="9" t="s">
         <v>441</v>
@@ -7651,7 +7714,7 @@
     </row>
     <row r="132" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>454</v>
@@ -7672,7 +7735,7 @@
         <v>337</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J132" s="9" t="s">
         <v>441</v>
@@ -7686,7 +7749,7 @@
     </row>
     <row r="133" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>454</v>
@@ -7707,7 +7770,7 @@
         <v>340</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J133" s="9" t="s">
         <v>441</v>
@@ -7721,7 +7784,7 @@
     </row>
     <row r="134" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>454</v>
@@ -7742,7 +7805,7 @@
         <v>343</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J134" s="9" t="s">
         <v>442</v>
@@ -7756,7 +7819,7 @@
     </row>
     <row r="135" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>454</v>
@@ -7777,7 +7840,7 @@
         <v>346</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J135" s="9" t="s">
         <v>441</v>
@@ -7791,7 +7854,7 @@
     </row>
     <row r="136" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>454</v>
@@ -7812,7 +7875,7 @@
         <v>349</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J136" s="9" t="s">
         <v>441</v>
@@ -7826,7 +7889,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>454</v>
@@ -7847,7 +7910,7 @@
         <v>352</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J137" s="9" t="s">
         <v>441</v>
@@ -7861,7 +7924,7 @@
     </row>
     <row r="138" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>579</v>
+        <v>643</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>454</v>
@@ -7882,7 +7945,7 @@
         <v>355</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J138" s="9" t="s">
         <v>441</v>
@@ -7896,7 +7959,7 @@
     </row>
     <row r="139" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>454</v>
@@ -7917,7 +7980,7 @@
         <v>358</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="J139" s="9" t="s">
         <v>441</v>
@@ -7931,7 +7994,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>455</v>
@@ -7952,7 +8015,7 @@
         <v>361</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J140" s="9" t="s">
         <v>442</v>
@@ -7966,7 +8029,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>455</v>
@@ -7987,7 +8050,7 @@
         <v>364</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J141" s="9" t="s">
         <v>441</v>
@@ -8001,7 +8064,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>455</v>
@@ -8022,7 +8085,7 @@
         <v>368</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J142" s="9" t="s">
         <v>442</v>
@@ -8036,7 +8099,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>455</v>
@@ -8057,7 +8120,7 @@
         <v>371</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J143" s="9" t="s">
         <v>442</v>
@@ -8071,7 +8134,7 @@
     </row>
     <row r="144" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>455</v>
@@ -8092,7 +8155,7 @@
         <v>374</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J144" s="9" t="s">
         <v>441</v>
@@ -8106,7 +8169,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>455</v>
@@ -8127,7 +8190,7 @@
         <v>378</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J145" s="9" t="s">
         <v>441</v>
@@ -8141,7 +8204,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>455</v>
@@ -8162,7 +8225,7 @@
         <v>381</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J146" s="9" t="s">
         <v>441</v>
@@ -8176,7 +8239,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>588</v>
+        <v>652</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>455</v>
@@ -8197,7 +8260,7 @@
         <v>384</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J147" s="9" t="s">
         <v>441</v>
@@ -8211,7 +8274,7 @@
     </row>
     <row r="148" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>455</v>
@@ -8232,7 +8295,7 @@
         <v>387</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J148" s="9" t="s">
         <v>442</v>
@@ -8246,7 +8309,7 @@
     </row>
     <row r="149" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>590</v>
+        <v>654</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>455</v>
@@ -8267,7 +8330,7 @@
         <v>390</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J149" s="9" t="s">
         <v>442</v>
@@ -8281,7 +8344,7 @@
     </row>
     <row r="150" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>591</v>
+        <v>655</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>455</v>
@@ -8302,7 +8365,7 @@
         <v>393</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J150" s="9" t="s">
         <v>442</v>
@@ -8316,7 +8379,7 @@
     </row>
     <row r="151" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>592</v>
+        <v>656</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>455</v>
@@ -8337,7 +8400,7 @@
         <v>397</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J151" s="9" t="s">
         <v>441</v>
@@ -8351,7 +8414,7 @@
     </row>
     <row r="152" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>593</v>
+        <v>657</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>455</v>
@@ -8372,7 +8435,7 @@
         <v>400</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J152" s="9" t="s">
         <v>441</v>
@@ -8386,7 +8449,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>594</v>
+        <v>658</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>455</v>
@@ -8407,7 +8470,7 @@
         <v>403</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J153" s="9" t="s">
         <v>442</v>
@@ -8421,7 +8484,7 @@
     </row>
     <row r="154" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>595</v>
+        <v>659</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>455</v>
@@ -8442,7 +8505,7 @@
         <v>406</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J154" s="9" t="s">
         <v>441</v>
@@ -8456,7 +8519,7 @@
     </row>
     <row r="155" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>455</v>
@@ -8477,7 +8540,7 @@
         <v>409</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J155" s="9" t="s">
         <v>441</v>
@@ -8491,7 +8554,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>597</v>
+        <v>661</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>455</v>
@@ -8512,7 +8575,7 @@
         <v>412</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J156" s="9" t="s">
         <v>441</v>
@@ -8526,7 +8589,7 @@
     </row>
     <row r="157" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>598</v>
+        <v>662</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>455</v>
@@ -8547,7 +8610,7 @@
         <v>415</v>
       </c>
       <c r="H157" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J157" s="9" t="s">
         <v>441</v>
@@ -8561,7 +8624,7 @@
     </row>
     <row r="158" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>455</v>
@@ -8582,7 +8645,7 @@
         <v>418</v>
       </c>
       <c r="H158" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J158" s="9" t="s">
         <v>441</v>
@@ -8596,7 +8659,7 @@
     </row>
     <row r="159" spans="1:12" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>600</v>
+        <v>664</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>455</v>
@@ -8617,7 +8680,7 @@
         <v>421</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J159" s="9" t="s">
         <v>441</v>
@@ -8631,7 +8694,7 @@
     </row>
     <row r="160" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>601</v>
+        <v>665</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>455</v>
@@ -8652,7 +8715,7 @@
         <v>424</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J160" s="9" t="s">
         <v>441</v>
@@ -8666,7 +8729,7 @@
     </row>
     <row r="161" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>602</v>
+        <v>666</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>455</v>
@@ -8687,7 +8750,7 @@
         <v>427</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J161" s="9" t="s">
         <v>441</v>
@@ -8701,7 +8764,7 @@
     </row>
     <row r="162" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>603</v>
+        <v>667</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>455</v>
@@ -8722,7 +8785,7 @@
         <v>430</v>
       </c>
       <c r="H162" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>441</v>
@@ -8736,7 +8799,7 @@
     </row>
     <row r="163" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>604</v>
+        <v>668</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>455</v>
@@ -8757,7 +8820,7 @@
         <v>433</v>
       </c>
       <c r="H163" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J163" s="9" t="s">
         <v>441</v>
@@ -8771,7 +8834,7 @@
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>455</v>
@@ -8792,7 +8855,7 @@
         <v>436</v>
       </c>
       <c r="H164" s="9" t="s">
-        <v>616</v>
+        <v>487</v>
       </c>
       <c r="J164" s="9" t="s">
         <v>442</v>
